--- a/bom/BOM_JLCSMT.xlsx
+++ b/bom/BOM_JLCSMT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will1\Dropbox\KiCad\IMX283_MIPI_Camera_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C23428A-652A-4202-8080-4344AEDB1A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C2CA44-E706-4421-B1BD-DB0665E71AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="5235" windowWidth="22335" windowHeight="17025" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33017" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>Comment</t>
   </si>
@@ -100,15 +100,9 @@
     <t>LP5907MFX-1.8</t>
   </si>
   <si>
-    <t>FH12A-22S-0.5SH(55)</t>
-  </si>
-  <si>
     <t>LP5907MFX-2.9</t>
   </si>
   <si>
-    <t>QWIIC_CONNECTORJS-1MM</t>
-  </si>
-  <si>
     <t>BLM18KG102SN1D</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>DFE201210U-2R2M=P2</t>
   </si>
   <si>
-    <t>ECS-2520MV-240-DN-TR</t>
-  </si>
-  <si>
     <t>AP3418KTR-G1</t>
   </si>
   <si>
@@ -142,12 +133,6 @@
     <t>SOT-23-5</t>
   </si>
   <si>
-    <t>Hirose_FH12-22S-0.5SH_1x22-1MP_P0.50mm_Horizontal</t>
-  </si>
-  <si>
-    <t>JST_SH_SM04B-SRSS-TB_1x04-1MP_P1.00mm_Horizontal</t>
-  </si>
-  <si>
     <t>L_0603_1608Metric</t>
   </si>
   <si>
@@ -166,18 +151,9 @@
     <t>C59461</t>
   </si>
   <si>
-    <t>C115046</t>
-  </si>
-  <si>
-    <t>C7,C36,C40,C41,C22,C39,C15,C24,C12,C10,C31,C30,C4</t>
-  </si>
-  <si>
     <t>FB4</t>
   </si>
   <si>
-    <t>R7,R1,R6,R4,R9,R3,R2,R5</t>
-  </si>
-  <si>
     <t>U8</t>
   </si>
   <si>
@@ -211,39 +187,15 @@
     <t>C160982</t>
   </si>
   <si>
-    <t>C160404</t>
-  </si>
-  <si>
     <t>C2877839</t>
   </si>
   <si>
-    <t>C3168813</t>
-  </si>
-  <si>
     <t>C92498</t>
   </si>
   <si>
-    <t>C389010</t>
-  </si>
-  <si>
-    <t>C60490</t>
-  </si>
-  <si>
-    <t>C110251</t>
-  </si>
-  <si>
     <t>C699536</t>
   </si>
   <si>
-    <t>C413049</t>
-  </si>
-  <si>
-    <t>C694157</t>
-  </si>
-  <si>
-    <t>C1518770</t>
-  </si>
-  <si>
     <t>C160978</t>
   </si>
   <si>
@@ -251,13 +203,112 @@
   </si>
   <si>
     <t>C840107</t>
+  </si>
+  <si>
+    <t>R7,R1,R6,R4,R9,R5</t>
+  </si>
+  <si>
+    <t>J4,J3</t>
+  </si>
+  <si>
+    <t>JPR1,JPR2</t>
+  </si>
+  <si>
+    <t>Conn_01x22_Shielded</t>
+  </si>
+  <si>
+    <t>Conn_Coaxial</t>
+  </si>
+  <si>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>ECS-2520S18-240-FN-TR</t>
+  </si>
+  <si>
+    <t>Conn_01x04_Shielded</t>
+  </si>
+  <si>
+    <t>TF3822S05SV830</t>
+  </si>
+  <si>
+    <t>U.FL_Hirose_U.FL-R-SMT-1_Vertical</t>
+  </si>
+  <si>
+    <t>JST_SH_BM04B-SRSS-TB_1x04-1MP_P1.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>C5137195</t>
+  </si>
+  <si>
+    <t>C160390</t>
+  </si>
+  <si>
+    <t>C6552695</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>PQFN50P300X250X97-14N</t>
+  </si>
+  <si>
+    <t>ICM-42688-P</t>
+  </si>
+  <si>
+    <t>C7,C36,C40,C41,C22,C39,C15,C24,C12,C10,C31,C30,C4,C42</t>
+  </si>
+  <si>
+    <t>C44</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>C307331</t>
+  </si>
+  <si>
+    <t>C1523</t>
+  </si>
+  <si>
+    <t>C52923</t>
+  </si>
+  <si>
+    <t>C19666</t>
+  </si>
+  <si>
+    <t>C15195</t>
+  </si>
+  <si>
+    <t>C12530</t>
+  </si>
+  <si>
+    <t>C25744</t>
+  </si>
+  <si>
+    <t>C25092</t>
+  </si>
+  <si>
+    <t>C616908</t>
+  </si>
+  <si>
+    <t>C1850418</t>
+  </si>
+  <si>
+    <t>C17168</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -268,23 +319,16 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FF222222"/>
-      <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="5"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -312,7 +356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,14 +369,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20" customHeight="1"/>
@@ -703,287 +743,357 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="D9" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>73</v>
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>28</v>
+      <c r="A14" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>58</v>
+      <c r="A15" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>76</v>
+        <v>48</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>29</v>
+      <c r="A16" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>62</v>
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>30</v>
+      <c r="A17" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>59</v>
+      <c r="D20" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>34</v>
+      <c r="A21" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>70</v>
+      <c r="C22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/bom/BOM_JLCSMT.xlsx
+++ b/bom/BOM_JLCSMT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will1\Dropbox\KiCad\IMX283_MIPI_Camera_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C2CA44-E706-4421-B1BD-DB0665E71AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D837EDD-F4A0-4F6A-92B7-4476446B6D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33017" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="1710" windowWidth="25327" windowHeight="17760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>Comment</t>
   </si>
@@ -40,15 +40,9 @@
     <t>C37</t>
   </si>
   <si>
-    <t>C14,C27,C9,C21,C16,C17,C1,C3,C23,C11,C35,C29,C20,C19,C6</t>
-  </si>
-  <si>
     <t>C8,C2,C5</t>
   </si>
   <si>
-    <t>C34,C38,C26,C18,C32,C28,C13,C33,C25</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>DLP11SN900HL2L</t>
-  </si>
-  <si>
     <t>22uF</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>LP5907MFX-1.8</t>
   </si>
   <si>
-    <t>LP5907MFX-2.9</t>
-  </si>
-  <si>
     <t>BLM18KG102SN1D</t>
   </si>
   <si>
@@ -154,24 +142,15 @@
     <t>FB4</t>
   </si>
   <si>
-    <t>U8</t>
-  </si>
-  <si>
     <t>U7</t>
   </si>
   <si>
     <t>L_0402_1005Metric</t>
   </si>
   <si>
-    <t>DFN-8-1EP_3x2mm_P0.5mm_EP1.3x1.5mm</t>
-  </si>
-  <si>
     <t>TCA9406DCUR</t>
   </si>
   <si>
-    <t>ATECC608A-MAHDA</t>
-  </si>
-  <si>
     <t>TCA9406DC</t>
   </si>
   <si>
@@ -187,9 +166,6 @@
     <t>C160982</t>
   </si>
   <si>
-    <t>C2877839</t>
-  </si>
-  <si>
     <t>C92498</t>
   </si>
   <si>
@@ -211,18 +187,12 @@
     <t>J4,J3</t>
   </si>
   <si>
-    <t>JPR1,JPR2</t>
-  </si>
-  <si>
     <t>Conn_01x22_Shielded</t>
   </si>
   <si>
     <t>Conn_Coaxial</t>
   </si>
   <si>
-    <t>0R</t>
-  </si>
-  <si>
     <t>ECS-2520S18-240-FN-TR</t>
   </si>
   <si>
@@ -250,24 +220,15 @@
     <t>U9</t>
   </si>
   <si>
-    <t>PQFN50P300X250X97-14N</t>
-  </si>
-  <si>
     <t>ICM-42688-P</t>
   </si>
   <si>
-    <t>C7,C36,C40,C41,C22,C39,C15,C24,C12,C10,C31,C30,C4,C42</t>
-  </si>
-  <si>
     <t>C44</t>
   </si>
   <si>
     <t>2.2uF</t>
   </si>
   <si>
-    <t>C43</t>
-  </si>
-  <si>
     <t>10nF</t>
   </si>
   <si>
@@ -295,13 +256,70 @@
     <t>C25092</t>
   </si>
   <si>
-    <t>C616908</t>
-  </si>
-  <si>
     <t>C1850418</t>
   </si>
   <si>
-    <t>C17168</t>
+    <t>C14,C27,C9,C21,C16,C17,C1,C45,C3,C23,C11,C35,C29,C20,C19,C6</t>
+  </si>
+  <si>
+    <t>C43,C46</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>C34,C47</t>
+  </si>
+  <si>
+    <t>C38,C18,C32,C28,C13,C33,C25</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>Texas_S-PDSO-N10_EP1.2x2mm</t>
+  </si>
+  <si>
+    <t>IIM42352</t>
+  </si>
+  <si>
+    <t>NFM18CC101R1C3D</t>
+  </si>
+  <si>
+    <t>KCZ1210AH900HRTD25</t>
+  </si>
+  <si>
+    <t>1.15K</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>TPS7A90</t>
+  </si>
+  <si>
+    <t>3.01K</t>
+  </si>
+  <si>
+    <t>C7,C36,C40,C22,C39,C15,C24,C12,C10,C31,C30,C4,C42</t>
+  </si>
+  <si>
+    <t>C840111</t>
+  </si>
+  <si>
+    <t>C304603</t>
+  </si>
+  <si>
+    <t>C477191</t>
+  </si>
+  <si>
+    <t>C2959727</t>
+  </si>
+  <si>
+    <t>C111493</t>
   </si>
 </sst>
 </file>
@@ -718,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20" customHeight="1"/>
@@ -743,357 +761,385 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
+      <c r="A10" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>72</v>
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>86</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>87</v>
+      <c r="D26" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
